--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -43,46 +43,43 @@
     <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketPartyCreateResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyCreateResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ENUM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlreadyJoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
     <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyInviteRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyInviteRequest</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketPartyCreateResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyCreateResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ENUM$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlreadyJoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketPartyInviteRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyInviteRequest</t>
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
@@ -213,10 +210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,17 +245,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -295,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +289,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,46 +302,46 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -392,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,13 +399,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -440,7 +426,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,46 +463,46 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="パーティ作成結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="パーティ勧誘リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="パーティ勧誘レスポンス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="パーティ解散リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="パーティ解散レスポンス" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -101,6 +103,18 @@
   </si>
   <si>
     <t xml:space="preserve">Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyDissolutionRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyDissolutionRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyDissolutionResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyDissolutionResponse</t>
   </si>
 </sst>
 </file>
@@ -212,7 +226,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -514,4 +528,143 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -75,13 +75,16 @@
     <t xml:space="preserve">Result</t>
   </si>
   <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPartyInviteRequest</t>
   </si>
   <si>
     <t xml:space="preserve">PartyInviteRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
@@ -277,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,6 +359,17 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -392,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,10 +430,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +455,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,10 +494,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,10 +505,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,10 +516,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="パーティ勧誘リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="パーティ勧誘レスポンス" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="パーティ解散リクエスト" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="パーティ解散レスポンス" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="パーティ解散結果" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketPartyCreateResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyCreateResponse</t>
+    <t xml:space="preserve">PacketPartyCreateResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyCreateResult</t>
   </si>
   <si>
     <t xml:space="preserve">$ENUM$</t>
@@ -114,10 +114,10 @@
     <t xml:space="preserve">PartyDissolutionRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketPartyDissolutionResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyDissolutionResponse</t>
+    <t xml:space="preserve">PacketPartyDissolutionResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyDissolutionResult</t>
   </si>
 </sst>
 </file>
@@ -282,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="パーティ作成結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="パーティ勧誘リクエスト" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="パーティ勧誘レスポンス" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="パーティ解散リクエスト" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="パーティ解散結果" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="パーティ勧誘結果" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="パーティ勧誘レスポンス" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="パーティ解散リクエスト" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="パーティ解散結果" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyInviteResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyInviteResult</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyInviteResponse</t>
@@ -452,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,25 +497,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,21 +523,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -545,6 +541,103 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -567,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,14 +690,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -620,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">PartyInviteResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlreadyJoinOtherParty</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyInviteResponse</t>
@@ -237,7 +240,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="5:5 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,7 +293,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,7 +401,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="5:5 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,17 +518,28 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -548,7 +562,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="5:5 H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +659,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +712,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
     <t xml:space="preserve">Response</t>
@@ -240,7 +243,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="5:5 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +296,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +404,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="5:5 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="5:5 H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +662,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,7 +715,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="5:5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,13 @@
     <sheet name="パーティ勧誘リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="パーティ勧誘結果" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="パーティ勧誘レスポンス" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="パーティ解散リクエスト" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="パーティ解散結果" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="パーティメンバ情報" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="パーティメンバ加入" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="パーティメンバリスト" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="パーティ離脱リクエスト" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="パーティ離脱結果" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="パーティ解散リクエスト" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="パーティ解散結果" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -119,6 +124,54 @@
   </si>
   <si>
     <t xml:space="preserve">Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyMemberData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyJoinMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyJoinMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyMemberData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;PartyMemberData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyExitRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyExitRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyExitResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyExitResult</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyDissolutionRequest</t>
@@ -288,6 +341,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -564,7 +842,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -659,10 +937,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,18 +960,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +996,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,35 +1035,154 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t xml:space="preserve">MemberData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyMemberList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyMemberLIst</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray.h</t>
@@ -364,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,7 +378,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,10 +1132,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1156,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -156,7 +156,7 @@
     <t xml:space="preserve">PacketPartyMemberList</t>
   </si>
   <si>
-    <t xml:space="preserve">PartyMemberLIst</t>
+    <t xml:space="preserve">PartyMemberList</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray.h</t>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="パーティ離脱結果" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="パーティ解散リクエスト" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="パーティ解散結果" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="パーティ解散" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -190,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">PartyDissolutionResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyDissolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyDissolution</t>
   </si>
 </sst>
 </file>
@@ -572,6 +579,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1076,7 +1136,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,8 @@
     <sheet name="パーティ勧誘結果" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="パーティ勧誘レスポンス" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="パーティメンバ情報" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="パーティメンバ加入" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="パーティメンバリスト" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="パーティ加入" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="パーティメンバ加入" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="パーティ離脱リクエスト" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="パーティ離脱結果" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="パーティ解散リクエスト" sheetId="11" state="visible" r:id="rId12"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -139,34 +139,34 @@
     <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketPartyJoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyJoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyMemberData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;PartyMemberData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberList</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPartyJoinMember</t>
   </si>
   <si>
     <t xml:space="preserve">PartyJoinMember</t>
   </si>
   <si>
-    <t xml:space="preserve">$INCLUDE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyMemberData.h</t>
-  </si>
-  <si>
     <t xml:space="preserve">MemberData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketPartyMemberList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartyMemberList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlexArray.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlexArray&lt;PartyMemberData&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberList</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyExitRequest</t>
@@ -586,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1062,6 +1062,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1080,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,86 +1206,6 @@
         <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,10 @@
     <sheet name="パーティメンバ加入" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="パーティ離脱リクエスト" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="パーティ離脱結果" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="パーティ解散リクエスト" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="パーティ解散結果" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="パーティ解散" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="パーティ離脱" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="パーティ解散リクエスト" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="パーティ解散結果" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="パーティ解散" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -179,6 +180,12 @@
   </si>
   <si>
     <t xml:space="preserve">PartyExitResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyExit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyExit</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyDissolutionRequest</t>
@@ -445,6 +452,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -463,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,7 +564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -516,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -602,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +1135,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,9 +19,12 @@
     <sheet name="パーティ離脱リクエスト" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="パーティ離脱結果" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="パーティ離脱" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="パーティ解散リクエスト" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="パーティ解散結果" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="パーティ解散" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="パーティメンバキックリクエスト" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="パーティメンバキック結果" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="パーティメンバキック" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="パーティ解散リクエスト" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="パーティ解散結果" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="パーティ解散" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -186,6 +189,24 @@
   </si>
   <si>
     <t xml:space="preserve">PartyExit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyKickRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyKickRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyKickResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyKickResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPartyKick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartyKick</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyDissolutionRequest</t>
@@ -454,7 +475,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -516,7 +537,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -553,6 +574,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -565,6 +597,209 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -587,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -673,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Party.xlsx
+++ b/Packet/PacketData/Party.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="パーティ作成リクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -137,12 +137,18 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">std::string</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPartyJoin</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t xml:space="preserve">MemberList</t>
   </si>
   <si>
+    <t xml:space="preserve">メンバリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPartyJoinMember</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
     <t xml:space="preserve">MemberData</t>
   </si>
   <si>
+    <t xml:space="preserve">メンバデータ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPartyExitRequest</t>
   </si>
   <si>
@@ -183,6 +195,15 @@
   </si>
   <si>
     <t xml:space="preserve">PartyExitResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPartyExit</t>
@@ -387,10 +408,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,6 +455,9 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -445,6 +469,9 @@
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -455,6 +482,9 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -473,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,6 +549,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -537,10 +570,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,6 +616,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -601,9 +637,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -619,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,39 +834,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -682,15 +847,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -705,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,123 +890,6 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,6 +898,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,6 +913,9 @@
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -872,6 +926,9 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,10 +1366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1340,16 +1397,22 @@
       <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1431,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1386,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,18 +1470,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,16 +1494,22 @@
       <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1459,10 +1528,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,10 +1567,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1581,10 @@
         <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
